--- a/工作.xlsx
+++ b/工作.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>http://jshop.jd.com</t>
   </si>
@@ -369,6 +369,19 @@
   <si>
     <t>szgyyqbpkj</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>terransforce未来人类  tfwlrl123</t>
+  </si>
+  <si>
+    <t>www.taobao.com </t>
+  </si>
+  <si>
+    <t> 直接点卖家中心 </t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1046,7 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1096,9 +1109,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">

--- a/工作.xlsx
+++ b/工作.xlsx
@@ -375,13 +375,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>www.taobao.com </t>
+  </si>
+  <si>
+    <t> 直接点卖家中心 </t>
+  </si>
+  <si>
     <t>terransforce未来人类  tfwlrl123</t>
-  </si>
-  <si>
-    <t>www.taobao.com </t>
-  </si>
-  <si>
-    <t> 直接点卖家中心 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1046,7 +1047,7 @@
   <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1114,10 +1115,10 @@
         <v>101</v>
       </c>
       <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1125,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">

--- a/工作.xlsx
+++ b/工作.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>http://jshop.jd.com</t>
   </si>
@@ -222,167 +222,175 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>http://tool.bopir.com/tool/phpmyadmin/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>marketing@terransforce.com/ tf20140101001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://manage.bopir.com/tool/ocp.php</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在未来人类服务号里面的openid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oSz8NuPQhPNowDs6OK7QVrVAZ1P4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "subscribe": 1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sex": 2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "language": "zh_CN", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "city": "苏州", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "province": "江苏", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "country": "中国", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "headimgurl": "http://wx.qlogo.cn/mmopen/yAic1SibalJEH7lrniaovq6C88Lk1hGox3jicZiamJEEEFppIP1ibryEuoXd2yAhPbOkA8r1FndDbPQYFXk1XoQtxQ6T2LKQygpNLib/0", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "subscribe_time": 1449806276, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "unionid": "oMw1NuCyySzL_HuXnT2iHe3PnLLE", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "remark": "", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "groupid": 0</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "openid": "oSz8NuPQhPNowDs6OK7QVrVAZ1P4", </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    "nickname": "香泪", </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AppID:wxfcea725d621989f7】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【AppSecret:c732e508229ddb6568e2216fa7c62fa2】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHP链接   ：</t>
+  </si>
+  <si>
+    <t>数据库资料: 链接：</t>
+  </si>
+  <si>
+    <t>http://pan.baidu.com/s/1eRemCxk 密码：ye0n </t>
+  </si>
+  <si>
+    <t>PHP资料   : 链接：</t>
+  </si>
+  <si>
+    <t>http://pan.baidu.com/s/1i4l8ddb 密码：11kf</t>
+  </si>
+  <si>
+    <t>JS资料    : 链接：</t>
+  </si>
+  <si>
+    <t>http://pan.baidu.com/s/1pKx7fWR 密码：pucr</t>
+  </si>
+  <si>
+    <t>HTML视频  : 链接：</t>
+  </si>
+  <si>
+    <t>http://pan.baidu.com/s/1nu0talF 密码：g9rv</t>
+  </si>
+  <si>
+    <t>http://pan.baidu.com/s/1sj1jet3   密码i7sh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库 root/dkieldoiy#dki</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号tugumi- 密码 hlmhw12302051990 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>szgyyqbpkj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来人类nb    </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://vcp.jd.com/sub_auth/checkUser</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://vcp.jd.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tfwlrlnb2015/http://vcp.jd.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>szgyyqbpkj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.taobao.com </t>
+  </si>
+  <si>
+    <t> 直接点卖家中心 </t>
+  </si>
+  <si>
+    <t>terransforce未来人类  tfwlrl123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tfwlrlnb2015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf2013123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>http://manage.bopir.com/company/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>http://tool.bopir.com/tool/phpmyadmin/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>marketing@terransforce.com/ tf20140101001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://manage.bopir.com/tool/ocp.php</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在未来人类服务号里面的openid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>oSz8NuPQhPNowDs6OK7QVrVAZ1P4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "subscribe": 1, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "sex": 2, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "language": "zh_CN", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "city": "苏州", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "province": "江苏", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "country": "中国", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "headimgurl": "http://wx.qlogo.cn/mmopen/yAic1SibalJEH7lrniaovq6C88Lk1hGox3jicZiamJEEEFppIP1ibryEuoXd2yAhPbOkA8r1FndDbPQYFXk1XoQtxQ6T2LKQygpNLib/0", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "subscribe_time": 1449806276, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "unionid": "oMw1NuCyySzL_HuXnT2iHe3PnLLE", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "remark": "", </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "groupid": 0</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "openid": "oSz8NuPQhPNowDs6OK7QVrVAZ1P4", </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    "nickname": "香泪", </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【AppID:wxfcea725d621989f7】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>【AppSecret:c732e508229ddb6568e2216fa7c62fa2】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHP链接   ：</t>
-  </si>
-  <si>
-    <t>数据库资料: 链接：</t>
-  </si>
-  <si>
-    <t>http://pan.baidu.com/s/1eRemCxk 密码：ye0n </t>
-  </si>
-  <si>
-    <t>PHP资料   : 链接：</t>
-  </si>
-  <si>
-    <t>http://pan.baidu.com/s/1i4l8ddb 密码：11kf</t>
-  </si>
-  <si>
-    <t>JS资料    : 链接：</t>
-  </si>
-  <si>
-    <t>http://pan.baidu.com/s/1pKx7fWR 密码：pucr</t>
-  </si>
-  <si>
-    <t>HTML视频  : 链接：</t>
-  </si>
-  <si>
-    <t>http://pan.baidu.com/s/1nu0talF 密码：g9rv</t>
-  </si>
-  <si>
-    <t>http://pan.baidu.com/s/1sj1jet3   密码i7sh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库 root/dkieldoiy#dki</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号tugumi- 密码 hlmhw12302051990 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>szgyyqbpkj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>未来人类nb    </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf2013123</t>
-  </si>
-  <si>
-    <t>tfwlrlnb2015</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://vcp.jd.com/sub_auth/checkUser</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://vcp.jd.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tfwlrlnb2015/http://vcp.jd.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>szgyyqbpkj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.taobao.com </t>
-  </si>
-  <si>
-    <t> 直接点卖家中心 </t>
-  </si>
-  <si>
-    <t>terransforce未来人类  tfwlrl123</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>http://shop.jd.com/index.action</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来人类nb/tf2013123</t>
   </si>
 </sst>
 </file>
@@ -483,13 +491,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -538,13 +546,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -593,13 +601,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -648,13 +656,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -703,13 +711,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1044,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1061,10 +1069,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1072,16 +1080,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
@@ -1089,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1110,406 +1118,414 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
         <v>101</v>
       </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>103</v>
+      <c r="D9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>19</v>
+      <c r="A39" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
         <v>26</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>27</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:3" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>29</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>30</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
         <v>33</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
         <v>62</v>
-      </c>
-      <c r="C58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C59" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C62" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>34</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>36</v>
       </c>
-      <c r="C67" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C71" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C73" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
+        <v>57</v>
+      </c>
+      <c r="B76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>43</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="2" t="s">
-        <v>90</v>
+      <c r="A103" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>82</v>
+      <c r="A104" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1517,18 +1533,19 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="qq://txfile/"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A64" r:id="rId3"/>
-    <hyperlink ref="A44" r:id="rId4"/>
-    <hyperlink ref="A38" r:id="rId5"/>
-    <hyperlink ref="A55" r:id="rId6"/>
-    <hyperlink ref="A91" r:id="rId7"/>
-    <hyperlink ref="A103" r:id="rId8"/>
+    <hyperlink ref="A65" r:id="rId3"/>
+    <hyperlink ref="A45" r:id="rId4"/>
+    <hyperlink ref="A39" r:id="rId5"/>
+    <hyperlink ref="A56" r:id="rId6"/>
+    <hyperlink ref="A92" r:id="rId7"/>
+    <hyperlink ref="A104" r:id="rId8"/>
     <hyperlink ref="E2" r:id="rId9"/>
     <hyperlink ref="D2" r:id="rId10"/>
+    <hyperlink ref="A7" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
